--- a/templates/轉出銷倉單格式範例2020(空運).xlsx
+++ b/templates/轉出銷倉單格式範例2020(空運).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30330A1D-02D9-42F9-8A70-111F71757FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5E6D8-832D-45ED-B0D6-174D62788A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${OL_IMPORTDT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +45,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data0.SPACE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data1.FLLR_REMARK}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data0.FLL_BAGNOPARTS}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data0.FLL_REMARK}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -493,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
